--- a/results/comparaison/GM/diattenuation/median_normalized.xlsx
+++ b/results/comparaison/GM/diattenuation/median_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.8167102348050062</v>
+      </c>
+      <c r="D3">
+        <v>0.7352360575520899</v>
+      </c>
+      <c r="E3">
         <v>1.048171560556795</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.018347377008293</v>
+      </c>
+      <c r="I3">
+        <v>1.238087470625644</v>
+      </c>
+      <c r="J3">
         <v>0.9913224070749521</v>
       </c>
-      <c r="D3">
-        <v>0.9072936161534881</v>
-      </c>
-      <c r="E3">
-        <v>0.7858552588809726</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.8028686182138935</v>
       </c>
-      <c r="G3">
-        <v>0.746532149317878</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>0.8813311148790098</v>
+      </c>
+      <c r="M3">
+        <v>0.8326265040884272</v>
+      </c>
+      <c r="N3">
         <v>0.8766557077837059</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.7916825442282903</v>
       </c>
-      <c r="L3">
-        <v>0.9361782932436733</v>
-      </c>
-      <c r="N3">
-        <v>1.043069782888372</v>
-      </c>
       <c r="P3">
-        <v>0.8160870048598834</v>
-      </c>
-      <c r="R3">
-        <v>0.8259251146317599</v>
-      </c>
-      <c r="S3">
-        <v>1.002375806259855</v>
+        <v>0.9131444824976693</v>
+      </c>
+      <c r="Q3">
+        <v>1.050879948290378</v>
       </c>
       <c r="T3">
-        <v>0.7424576567951787</v>
+        <v>0.9427225419694006</v>
+      </c>
+      <c r="U3">
+        <v>0.6568278791417227</v>
       </c>
       <c r="V3">
-        <v>0.7433270768436966</v>
-      </c>
-      <c r="X3">
-        <v>1.018347377008293</v>
+        <v>0.7568526661527764</v>
+      </c>
+      <c r="W3">
+        <v>0.8682617564250866</v>
       </c>
       <c r="Y3">
-        <v>0.8589114413902537</v>
+        <v>0.937405717496604</v>
       </c>
       <c r="Z3">
-        <v>1.238087470625644</v>
-      </c>
-      <c r="AB3">
-        <v>1.226843865651948</v>
+        <v>0.9243164946876545</v>
+      </c>
+      <c r="AA3">
+        <v>1.326213590230338</v>
       </c>
       <c r="AC3">
-        <v>0.9724277746049358</v>
+        <v>1.263403148003856</v>
       </c>
       <c r="AD3">
-        <v>1.32840484767371</v>
-      </c>
-      <c r="AE3">
-        <v>1.049020921500558</v>
+        <v>0.8217293662275772</v>
       </c>
       <c r="AF3">
-        <v>1.174783505164758</v>
+        <v>1.046236961842375</v>
       </c>
       <c r="AG3">
-        <v>0.8271033143492855</v>
-      </c>
-      <c r="AH3">
-        <v>1.25345913038019</v>
+        <v>0.6720029033709636</v>
       </c>
       <c r="AI3">
-        <v>0.7443489651931788</v>
+        <v>0.6395301731222951</v>
       </c>
       <c r="AJ3">
-        <v>0.8468194300902342</v>
+        <v>0.564442189833089</v>
+      </c>
+      <c r="AK3">
+        <v>0.9346159422185171</v>
       </c>
       <c r="AL3">
-        <v>0.9884975803201445</v>
+        <v>1.196524638659557</v>
+      </c>
+      <c r="AM3">
+        <v>0.7503051584807225</v>
       </c>
       <c r="AN3">
-        <v>1.149748729509669</v>
+        <v>0.7212171083066266</v>
       </c>
       <c r="AO3">
-        <v>1.163376660931448</v>
+        <v>0.7503860061624484</v>
       </c>
       <c r="AP3">
-        <v>1.580809580208935</v>
+        <v>1.075206780793159</v>
       </c>
       <c r="AQ3">
-        <v>1.184654586063923</v>
+        <v>0.8639049409852245</v>
       </c>
       <c r="AR3">
-        <v>0.8397723530125372</v>
+        <v>0.8127198127853535</v>
       </c>
       <c r="AT3">
-        <v>1.050292259037497</v>
+        <v>0.9944595888432257</v>
+      </c>
+      <c r="AU3">
+        <v>1.014660783174047</v>
       </c>
       <c r="AV3">
-        <v>1.021724044528291</v>
+        <v>0.7837857055605146</v>
       </c>
       <c r="AW3">
-        <v>0.8299471450838926</v>
+        <v>0.9397161262851671</v>
       </c>
       <c r="AX3">
-        <v>1.219194553437778</v>
+        <v>0.97600476247222</v>
       </c>
       <c r="AY3">
-        <v>1.155889439905128</v>
-      </c>
-      <c r="AZ3">
-        <v>1.242006672429992</v>
+        <v>1.041761857337839</v>
       </c>
       <c r="BA3">
-        <v>1.16790597109821</v>
+        <v>1.040662012549448</v>
       </c>
       <c r="BB3">
-        <v>1.102314065029265</v>
+        <v>0.8104256194250307</v>
       </c>
       <c r="BC3">
-        <v>1.150493878559513</v>
+        <v>1.253320291808079</v>
       </c>
       <c r="BD3">
-        <v>0.9774498619851638</v>
+        <v>0.969805189335626</v>
       </c>
       <c r="BE3">
-        <v>0.9146816188047096</v>
+        <v>1.174738994986736</v>
       </c>
       <c r="BF3">
-        <v>0.9882757113477219</v>
-      </c>
-      <c r="BG3">
-        <v>1.157319165740804</v>
+        <v>0.8977523604965777</v>
       </c>
       <c r="BH3">
-        <v>0.971987723754366</v>
+        <v>0.9629618136203957</v>
       </c>
       <c r="BI3">
-        <v>0.91898569507644</v>
+        <v>1.225167673969637</v>
       </c>
       <c r="BJ3">
-        <v>0.9749152953186359</v>
+        <v>1.331479738970889</v>
+      </c>
+      <c r="BK3">
+        <v>1.160993463478305</v>
       </c>
       <c r="BL3">
-        <v>0.8167768819508544</v>
-      </c>
-      <c r="BM3">
-        <v>1.059290018112946</v>
+        <v>1.09958721793918</v>
+      </c>
+      <c r="BN3">
+        <v>0.7608882741069765</v>
+      </c>
+      <c r="BO3">
+        <v>0.9798138710549391</v>
+      </c>
+      <c r="BP3">
+        <v>1.087353902357365</v>
       </c>
       <c r="BQ3">
-        <v>0.9590104317217069</v>
+        <v>1.127052312197022</v>
       </c>
       <c r="BR3">
-        <v>1.106494209626098</v>
+        <v>0.9650208858502165</v>
       </c>
       <c r="BS3">
-        <v>1.287247518860871</v>
+        <v>1.26371992423231</v>
       </c>
       <c r="BT3">
-        <v>0.9564525804204904</v>
+        <v>0.8000811084675444</v>
       </c>
       <c r="BU3">
-        <v>1.198792985581624</v>
+        <v>1.217889747037319</v>
       </c>
       <c r="BV3">
-        <v>1.190472317368826</v>
+        <v>1.171290388535067</v>
       </c>
       <c r="BW3">
-        <v>0.973485950976792</v>
+        <v>1.012194611471983</v>
       </c>
       <c r="BX3">
-        <v>1.217077737743528</v>
-      </c>
-      <c r="CA3">
-        <v>1.045712795961131</v>
+        <v>1.114688572668229</v>
+      </c>
+      <c r="BY3">
+        <v>0.8288531041112309</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9051010931482375</v>
       </c>
       <c r="CB3">
-        <v>1.021243703690473</v>
+        <v>1.072067539352433</v>
+      </c>
+      <c r="CC3">
+        <v>1.233452777434952</v>
       </c>
       <c r="CD3">
-        <v>0.9924030887062523</v>
+        <v>1.004472688285934</v>
       </c>
       <c r="CE3">
-        <v>0.9797531823155951</v>
+        <v>1.12518183568647</v>
       </c>
       <c r="CF3">
-        <v>0.7751412502291546</v>
+        <v>1.051982684349965</v>
+      </c>
+      <c r="CG3">
+        <v>1.021076224551088</v>
       </c>
       <c r="CH3">
-        <v>1.116213638958648</v>
+        <v>0.9055452566273451</v>
+      </c>
+      <c r="CI3">
+        <v>1.398244399687757</v>
       </c>
       <c r="CK3">
-        <v>1.051339996440258</v>
+        <v>0.8541096751359967</v>
+      </c>
+      <c r="CL3">
+        <v>0.8858223212944398</v>
       </c>
       <c r="CM3">
-        <v>0.7891310795800678</v>
+        <v>1.014757467996648</v>
       </c>
       <c r="CN3">
-        <v>0.8911644607878263</v>
+        <v>1.18640641367849</v>
+      </c>
+      <c r="CO3">
+        <v>0.9935164545828234</v>
       </c>
       <c r="CP3">
-        <v>0.9868382705452556</v>
+        <v>0.9612423904250443</v>
+      </c>
+      <c r="CQ3">
+        <v>0.8210222684891356</v>
+      </c>
+      <c r="CR3">
+        <v>1.024885986119299</v>
       </c>
       <c r="CS3">
-        <v>1.044879515528673</v>
+        <v>0.8715615759014586</v>
+      </c>
+      <c r="CT3">
+        <v>0.7925541140204013</v>
+      </c>
+      <c r="CU3">
+        <v>1.058659664169182</v>
+      </c>
+      <c r="CV3">
+        <v>0.8445396905374967</v>
+      </c>
+      <c r="CW3">
+        <v>0.8453825036809789</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.143047101697084</v>
+      </c>
       <c r="C4">
+        <v>0.9356266280180879</v>
+      </c>
+      <c r="D4">
+        <v>0.8319361994379371</v>
+      </c>
+      <c r="E4">
+        <v>1.154890020585136</v>
+      </c>
+      <c r="H4">
+        <v>1.026623781257677</v>
+      </c>
+      <c r="I4">
+        <v>1.264251182443132</v>
+      </c>
+      <c r="J4">
         <v>1.011735759540706</v>
       </c>
-      <c r="D4">
-        <v>1.001346230969329</v>
-      </c>
-      <c r="E4">
-        <v>0.7905728569886681</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.9157398638444598</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0.878135555337455</v>
+      </c>
+      <c r="M4">
+        <v>0.8319033076400936</v>
+      </c>
+      <c r="N4">
         <v>0.9103016290812537</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.9896682339820851</v>
       </c>
-      <c r="L4">
-        <v>0.9733378954103699</v>
-      </c>
-      <c r="N4">
-        <v>1.021419511519375</v>
+      <c r="P4">
+        <v>0.9845305461698065</v>
       </c>
       <c r="Q4">
-        <v>1.104126285124992</v>
-      </c>
-      <c r="R4">
-        <v>0.8941410371841885</v>
-      </c>
-      <c r="S4">
-        <v>1.228677718641523</v>
+        <v>1.027405295899647</v>
       </c>
       <c r="T4">
-        <v>0.8104919027307717</v>
+        <v>1.008248537026634</v>
+      </c>
+      <c r="U4">
+        <v>0.7161899577944703</v>
       </c>
       <c r="V4">
-        <v>0.8244329526971641</v>
+        <v>0.8884231630091567</v>
       </c>
       <c r="W4">
-        <v>1.143639657792813</v>
-      </c>
-      <c r="X4">
-        <v>1.026623781257677</v>
-      </c>
-      <c r="Y4">
-        <v>0.8287658380695655</v>
+        <v>1.0280282358365</v>
+      </c>
+      <c r="Z4">
+        <v>0.9316173176782752</v>
+      </c>
+      <c r="AA4">
+        <v>1.302640788134527</v>
       </c>
       <c r="AC4">
-        <v>0.8333684310843994</v>
-      </c>
-      <c r="AE4">
-        <v>1.043495653426614</v>
+        <v>1.491587395434564</v>
+      </c>
+      <c r="AD4">
+        <v>0.987013937200914</v>
       </c>
       <c r="AF4">
-        <v>1.167877827803504</v>
-      </c>
-      <c r="AH4">
-        <v>1.402138245553429</v>
+        <v>1.071507805914935</v>
+      </c>
+      <c r="AG4">
+        <v>0.6772300415715965</v>
       </c>
       <c r="AI4">
-        <v>0.7339898020811949</v>
+        <v>0.6934136864981006</v>
       </c>
       <c r="AJ4">
-        <v>0.9685813271650451</v>
+        <v>0.6325272000331381</v>
+      </c>
+      <c r="AK4">
+        <v>0.8739657777230625</v>
       </c>
       <c r="AL4">
-        <v>0.9164261623116881</v>
+        <v>1.321989087963781</v>
+      </c>
+      <c r="AM4">
+        <v>0.795966459637394</v>
+      </c>
+      <c r="AN4">
+        <v>0.7975725010868508</v>
       </c>
       <c r="AO4">
-        <v>1.191326939445253</v>
+        <v>0.8651580922485387</v>
       </c>
       <c r="AP4">
-        <v>1.522791819720571</v>
+        <v>1.176615049480706</v>
       </c>
       <c r="AQ4">
-        <v>1.284758668664458</v>
+        <v>1.0004178123369</v>
       </c>
       <c r="AR4">
-        <v>0.8132601142927062</v>
-      </c>
-      <c r="AS4">
-        <v>1.385609827926501</v>
+        <v>0.8367990734319575</v>
       </c>
       <c r="AT4">
-        <v>1.102178605794041</v>
+        <v>1.030187316409712</v>
+      </c>
+      <c r="AU4">
+        <v>0.9454305719509354</v>
       </c>
       <c r="AV4">
-        <v>1.087867951964939</v>
+        <v>0.8050661538930621</v>
       </c>
       <c r="AW4">
-        <v>0.9512862550606649</v>
+        <v>1.121288139481267</v>
       </c>
       <c r="AX4">
-        <v>1.182484637594525</v>
+        <v>0.9673093164655159</v>
+      </c>
+      <c r="AY4">
+        <v>1.260935478242811</v>
       </c>
       <c r="AZ4">
-        <v>1.194513674183217</v>
+        <v>0.921969088772316</v>
       </c>
       <c r="BA4">
-        <v>1.184809837042242</v>
+        <v>1.060884838616012</v>
       </c>
       <c r="BB4">
-        <v>1.122322457930849</v>
+        <v>0.9001102414186304</v>
       </c>
       <c r="BC4">
-        <v>1.18909175212857</v>
+        <v>1.27331578907752</v>
       </c>
       <c r="BD4">
-        <v>1.126860028174399</v>
+        <v>1.009973527699935</v>
       </c>
       <c r="BE4">
-        <v>1.013978127657589</v>
+        <v>1.193299969120796</v>
       </c>
       <c r="BF4">
-        <v>0.9576652485152456</v>
-      </c>
-      <c r="BG4">
-        <v>1.219426206872441</v>
+        <v>1.003431372533926</v>
       </c>
       <c r="BH4">
-        <v>1.041124842047136</v>
+        <v>1.10421312293892</v>
       </c>
       <c r="BI4">
-        <v>0.9674785759555212</v>
+        <v>1.174250774214763</v>
       </c>
       <c r="BJ4">
-        <v>1.106826492954645</v>
+        <v>1.290546686061498</v>
+      </c>
+      <c r="BK4">
+        <v>1.259908533712824</v>
       </c>
       <c r="BL4">
-        <v>0.8858357442494109</v>
+        <v>1.07521504619497</v>
       </c>
       <c r="BM4">
-        <v>1.054144407370399</v>
+        <v>1.190097788220704</v>
       </c>
       <c r="BN4">
-        <v>1.134943060643959</v>
+        <v>0.9125036081779355</v>
       </c>
       <c r="BO4">
-        <v>1.258678305579948</v>
+        <v>1.158491294213982</v>
+      </c>
+      <c r="BP4">
+        <v>1.262813020629213</v>
+      </c>
+      <c r="BQ4">
+        <v>1.24107300102099</v>
       </c>
       <c r="BR4">
-        <v>1.12532868481324</v>
+        <v>1.088702178114047</v>
       </c>
       <c r="BS4">
-        <v>1.269595967309963</v>
+        <v>1.240975327739149</v>
+      </c>
+      <c r="BT4">
+        <v>0.8526914966309351</v>
       </c>
       <c r="BU4">
-        <v>1.140172680653357</v>
+        <v>1.348416971771928</v>
+      </c>
+      <c r="BV4">
+        <v>1.233943456274279</v>
+      </c>
+      <c r="BW4">
+        <v>1.175881101680851</v>
       </c>
       <c r="BX4">
-        <v>1.293140403334403</v>
+        <v>1.058906946833994</v>
       </c>
       <c r="BY4">
-        <v>0.8315124401600409</v>
-      </c>
-      <c r="CA4">
-        <v>1.1358788600265</v>
+        <v>0.9094055295019006</v>
+      </c>
+      <c r="BZ4">
+        <v>1.023655908885414</v>
+      </c>
+      <c r="CB4">
+        <v>1.178435270279522</v>
+      </c>
+      <c r="CC4">
+        <v>1.413309097943478</v>
+      </c>
+      <c r="CD4">
+        <v>1.202301388370928</v>
       </c>
       <c r="CE4">
-        <v>1.163926160403105</v>
+        <v>1.254464211860065</v>
       </c>
       <c r="CF4">
-        <v>0.8488886166554601</v>
+        <v>1.189442250769554</v>
+      </c>
+      <c r="CG4">
+        <v>1.090995940937894</v>
       </c>
       <c r="CH4">
-        <v>1.39217747423841</v>
+        <v>1.018207570501346</v>
       </c>
       <c r="CI4">
-        <v>1.171292290512774</v>
+        <v>1.499076263507215</v>
       </c>
       <c r="CK4">
-        <v>1.149695811063701</v>
+        <v>0.8819968007844514</v>
       </c>
       <c r="CL4">
-        <v>1.311235952378482</v>
+        <v>0.9833270302849602</v>
       </c>
       <c r="CM4">
-        <v>0.8366644961682169</v>
+        <v>1.131570037581928</v>
       </c>
       <c r="CN4">
-        <v>1.010183606230018</v>
+        <v>1.440523177317032</v>
+      </c>
+      <c r="CO4">
+        <v>1.202826822908869</v>
       </c>
       <c r="CP4">
-        <v>0.922232102589105</v>
+        <v>1.00197779859046</v>
+      </c>
+      <c r="CQ4">
+        <v>0.7987249442412903</v>
+      </c>
+      <c r="CR4">
+        <v>1.140515295840066</v>
       </c>
       <c r="CS4">
-        <v>1.160739546995932</v>
+        <v>0.9951913702843767</v>
+      </c>
+      <c r="CT4">
+        <v>1.053673434094105</v>
       </c>
       <c r="CU4">
-        <v>0.9028401651350871</v>
+        <v>1.064505315151036</v>
+      </c>
+      <c r="CV4">
+        <v>0.9766026158138961</v>
+      </c>
+      <c r="CW4">
+        <v>0.8066089775950021</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.05362035318048</v>
+      </c>
+      <c r="C5">
+        <v>0.9569330830269984</v>
+      </c>
+      <c r="D5">
+        <v>0.7571790162712919</v>
+      </c>
+      <c r="E5">
         <v>1.232854686463159</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.165738101564469</v>
+      </c>
+      <c r="I5">
+        <v>1.634217427596135</v>
+      </c>
+      <c r="J5">
         <v>1.008139857750632</v>
       </c>
-      <c r="D5">
-        <v>1.121366977531475</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.9243622342855433</v>
       </c>
-      <c r="G5">
-        <v>0.9657250814047891</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>0.9455679680281287</v>
+      </c>
+      <c r="M5">
+        <v>0.8844210716280637</v>
+      </c>
+      <c r="N5">
         <v>0.9456931006964422</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0.8438795143459463</v>
       </c>
-      <c r="N5">
-        <v>1.117005065471874</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.051637780894522</v>
+      </c>
+      <c r="Q5">
+        <v>1.122740873517992</v>
+      </c>
+      <c r="R5">
         <v>1.235158754584659</v>
       </c>
-      <c r="S5">
-        <v>1.239483735654736</v>
-      </c>
-      <c r="T5">
-        <v>0.7529558619084613</v>
+      <c r="U5">
+        <v>0.8445184495554373</v>
       </c>
       <c r="V5">
-        <v>0.7734018894420602</v>
+        <v>0.9691251057588782</v>
       </c>
       <c r="W5">
-        <v>1.069081409510181</v>
-      </c>
-      <c r="X5">
-        <v>1.165738101564469</v>
-      </c>
-      <c r="Y5">
-        <v>0.960182326791794</v>
+        <v>0.991389650694572</v>
       </c>
       <c r="Z5">
-        <v>1.634217427596135</v>
-      </c>
-      <c r="AB5">
-        <v>1.407800456899882</v>
+        <v>0.9669063217319183</v>
+      </c>
+      <c r="AA5">
+        <v>1.417907217211479</v>
       </c>
       <c r="AC5">
-        <v>0.9967540389241036</v>
-      </c>
-      <c r="AD5">
-        <v>1.269800780141461</v>
-      </c>
-      <c r="AE5">
-        <v>1.119196471263639</v>
-      </c>
-      <c r="AH5">
-        <v>1.1811312003017</v>
+        <v>1.367539676774119</v>
+      </c>
+      <c r="AF5">
+        <v>1.127639689354827</v>
+      </c>
+      <c r="AG5">
+        <v>0.8062478063988004</v>
       </c>
       <c r="AI5">
-        <v>0.7426326253564351</v>
+        <v>0.7122081703348498</v>
       </c>
       <c r="AJ5">
-        <v>0.9666751342505842</v>
+        <v>0.6581953618686273</v>
+      </c>
+      <c r="AK5">
+        <v>0.9093911911902764</v>
       </c>
       <c r="AL5">
-        <v>0.9681681398687974</v>
-      </c>
-      <c r="AO5">
-        <v>1.201304981765614</v>
+        <v>1.25278886775059</v>
+      </c>
+      <c r="AM5">
+        <v>0.7020661408712527</v>
+      </c>
+      <c r="AN5">
+        <v>0.7110020352053138</v>
       </c>
       <c r="AP5">
-        <v>1.47040224319539</v>
+        <v>1.170657256922979</v>
       </c>
       <c r="AQ5">
-        <v>1.132905538879546</v>
+        <v>1.103842326956889</v>
       </c>
       <c r="AR5">
-        <v>0.7585706801716082</v>
+        <v>0.7785393299146707</v>
       </c>
       <c r="AT5">
-        <v>1.252011057680353</v>
+        <v>1.057588780961817</v>
+      </c>
+      <c r="AU5">
+        <v>1.160498018583835</v>
       </c>
       <c r="AV5">
-        <v>1.130321182952394</v>
+        <v>0.7334742322025593</v>
       </c>
       <c r="AW5">
-        <v>0.995922586005087</v>
+        <v>1.230045030157647</v>
       </c>
       <c r="AX5">
-        <v>1.261726583775152</v>
+        <v>1.073775639005438</v>
       </c>
       <c r="AY5">
-        <v>1.053596302323092</v>
+        <v>1.379449417281064</v>
       </c>
       <c r="AZ5">
-        <v>1.152128748135259</v>
+        <v>0.8385616474120479</v>
       </c>
       <c r="BA5">
-        <v>1.044844608877719</v>
+        <v>1.050743116910087</v>
       </c>
       <c r="BB5">
-        <v>0.9285758433465398</v>
+        <v>0.896208647113039</v>
       </c>
       <c r="BC5">
-        <v>1.005242433277431</v>
+        <v>1.135473464307386</v>
       </c>
       <c r="BD5">
-        <v>0.9990934970026726</v>
+        <v>0.8692619936868266</v>
       </c>
       <c r="BE5">
-        <v>0.9495710869499706</v>
+        <v>1.073321211278471</v>
       </c>
       <c r="BF5">
-        <v>1.112073489959901</v>
+        <v>0.9265106350131689</v>
+      </c>
+      <c r="BG5">
+        <v>1.036649290876101</v>
       </c>
       <c r="BH5">
-        <v>1.064308537679022</v>
+        <v>0.9440447716777348</v>
       </c>
       <c r="BI5">
-        <v>0.9224809522244964</v>
+        <v>1.028339851987822</v>
       </c>
       <c r="BJ5">
-        <v>0.959177929056813</v>
+        <v>1.095367766236114</v>
+      </c>
+      <c r="BK5">
+        <v>1.136159787277381</v>
       </c>
       <c r="BL5">
-        <v>0.957106973469378</v>
+        <v>0.8952948084645309</v>
+      </c>
+      <c r="BM5">
+        <v>1.078431184234084</v>
+      </c>
+      <c r="BN5">
+        <v>0.7527965595377016</v>
+      </c>
+      <c r="BO5">
+        <v>1.06744409757871</v>
       </c>
       <c r="BP5">
-        <v>0.7776374159735155</v>
+        <v>1.098345577198118</v>
+      </c>
+      <c r="BQ5">
+        <v>1.180878228475027</v>
       </c>
       <c r="BR5">
-        <v>0.9067991464662952</v>
+        <v>0.9085621226080151</v>
       </c>
       <c r="BS5">
-        <v>1.291411135196171</v>
+        <v>1.102022516744476</v>
+      </c>
+      <c r="BT5">
+        <v>0.9062304918002947</v>
       </c>
       <c r="BU5">
-        <v>1.013249390297761</v>
+        <v>1.098045607004444</v>
       </c>
       <c r="BV5">
-        <v>1.179278485246975</v>
+        <v>1.046490715187603</v>
+      </c>
+      <c r="BW5">
+        <v>1.02440465962142</v>
       </c>
       <c r="BX5">
-        <v>1.065100586272122</v>
+        <v>0.9834515463017162</v>
       </c>
       <c r="BY5">
-        <v>0.8136411394648029</v>
-      </c>
-      <c r="CA5">
-        <v>0.9648582838315972</v>
+        <v>0.9885571415976262</v>
+      </c>
+      <c r="BZ5">
+        <v>0.8468175525549316</v>
+      </c>
+      <c r="CB5">
+        <v>0.9990450947550099</v>
       </c>
       <c r="CC5">
-        <v>0.9400450632802685</v>
+        <v>1.314038975637918</v>
       </c>
       <c r="CD5">
-        <v>1.111598319392987</v>
+        <v>0.9716515781556732</v>
       </c>
       <c r="CE5">
-        <v>0.9122319667985267</v>
+        <v>1.050740306147936</v>
+      </c>
+      <c r="CF5">
+        <v>1.026401739068608</v>
+      </c>
+      <c r="CG5">
+        <v>1.073834195898916</v>
       </c>
       <c r="CH5">
-        <v>1.01828441720629</v>
+        <v>0.9886980430894737</v>
+      </c>
+      <c r="CI5">
+        <v>1.418057955663648</v>
       </c>
       <c r="CK5">
-        <v>1.116848983964038</v>
+        <v>0.8775490203074403</v>
+      </c>
+      <c r="CL5">
+        <v>0.9213455364532193</v>
       </c>
       <c r="CM5">
-        <v>0.944295003652157</v>
+        <v>1.066814672502676</v>
       </c>
       <c r="CN5">
-        <v>0.9886634194131756</v>
+        <v>1.227301666995217</v>
+      </c>
+      <c r="CO5">
+        <v>1.06994512532004</v>
       </c>
       <c r="CP5">
-        <v>0.9182061533510902</v>
+        <v>0.9297728654437699</v>
+      </c>
+      <c r="CQ5">
+        <v>0.826806736526518</v>
+      </c>
+      <c r="CR5">
+        <v>1.075337012555865</v>
       </c>
       <c r="CS5">
-        <v>1.048795333362232</v>
+        <v>0.9231200014219408</v>
+      </c>
+      <c r="CT5">
+        <v>0.9306272585870677</v>
       </c>
       <c r="CU5">
-        <v>0.9956756981131863</v>
+        <v>0.8652009264796083</v>
+      </c>
+      <c r="CV5">
+        <v>1.01854581540453</v>
       </c>
       <c r="CW5">
-        <v>1.043108823836239</v>
+        <v>0.7456143398815335</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.7962774724636045</v>
+      </c>
+      <c r="D6">
+        <v>0.6114877051233275</v>
+      </c>
+      <c r="E6">
         <v>1.017611245435231</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.202668212178118</v>
+      </c>
+      <c r="H6">
+        <v>1.004428134786806</v>
+      </c>
+      <c r="I6">
+        <v>1.73550788219233</v>
+      </c>
+      <c r="J6">
         <v>0.9086989204986234</v>
       </c>
-      <c r="D6">
-        <v>0.8108242729992505</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.005560492729789</v>
       </c>
-      <c r="G6">
-        <v>1.016949098473117</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>0.9057140177787097</v>
+      </c>
+      <c r="M6">
+        <v>0.8122772257199931</v>
+      </c>
+      <c r="N6">
         <v>1.065849643112044</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.6844635215032486</v>
       </c>
-      <c r="J6">
-        <v>0.9814663698382555</v>
-      </c>
-      <c r="M6">
-        <v>1.202668212178118</v>
-      </c>
-      <c r="N6">
-        <v>0.7607379795035318</v>
+      <c r="P6">
+        <v>0.9829557263208897</v>
       </c>
       <c r="Q6">
-        <v>1.127923839273687</v>
-      </c>
-      <c r="S6">
-        <v>1.070156413200986</v>
-      </c>
-      <c r="T6">
-        <v>0.7778892674429564</v>
+        <v>0.7592645385547464</v>
+      </c>
+      <c r="V6">
+        <v>1.061933381542181</v>
       </c>
       <c r="W6">
-        <v>0.826142055809571</v>
-      </c>
-      <c r="X6">
-        <v>1.004428134786806</v>
+        <v>0.6397732594209583</v>
       </c>
       <c r="Y6">
-        <v>0.9362922656488303</v>
+        <v>0.9896162217575559</v>
+      </c>
+      <c r="Z6">
+        <v>0.9466749058147029</v>
       </c>
       <c r="AA6">
-        <v>1.010605035371696</v>
-      </c>
-      <c r="AB6">
-        <v>1.431463169971792</v>
+        <v>1.719553787355358</v>
       </c>
       <c r="AC6">
-        <v>1.058008758961669</v>
+        <v>1.28050890090499</v>
       </c>
       <c r="AD6">
-        <v>1.341990776020137</v>
+        <v>0.9234067041580614</v>
       </c>
       <c r="AE6">
-        <v>1.07530288776547</v>
+        <v>0.9697964751714572</v>
+      </c>
+      <c r="AF6">
+        <v>1.053908799431138</v>
       </c>
       <c r="AG6">
-        <v>0.9738977309829305</v>
+        <v>0.7710097875616</v>
       </c>
       <c r="AH6">
-        <v>1.196159860010156</v>
+        <v>1.069074408192883</v>
+      </c>
+      <c r="AI6">
+        <v>0.6995169387068649</v>
       </c>
       <c r="AJ6">
-        <v>0.8918670442893343</v>
+        <v>0.6662783207430923</v>
       </c>
       <c r="AK6">
-        <v>0.8543093071747762</v>
+        <v>0.9635387177540939</v>
+      </c>
+      <c r="AL6">
+        <v>0.9770986832532365</v>
       </c>
       <c r="AM6">
-        <v>1.03366393747379</v>
+        <v>0.7353963266374344</v>
       </c>
       <c r="AN6">
-        <v>1.043599522189609</v>
+        <v>0.7789202345459635</v>
       </c>
       <c r="AO6">
-        <v>1.225858104374883</v>
+        <v>0.8294831722544922</v>
       </c>
       <c r="AP6">
-        <v>1.369867135798527</v>
+        <v>1.174797739925026</v>
       </c>
       <c r="AQ6">
-        <v>0.8878624436187319</v>
+        <v>0.9917591434889613</v>
       </c>
       <c r="AR6">
-        <v>0.8416217439584398</v>
+        <v>0.8626547941356074</v>
+      </c>
+      <c r="AS6">
+        <v>1.092402660212414</v>
+      </c>
+      <c r="AT6">
+        <v>1.030593974178509</v>
+      </c>
+      <c r="AU6">
+        <v>1.043598422069276</v>
       </c>
       <c r="AV6">
-        <v>1.082048854278961</v>
+        <v>0.7622438189406251</v>
       </c>
       <c r="AW6">
-        <v>1.612614226287237</v>
+        <v>1.089053940235598</v>
       </c>
       <c r="AX6">
-        <v>1.205122634631965</v>
+        <v>1.054281418875981</v>
+      </c>
+      <c r="AY6">
+        <v>1.134498106991008</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9675220652475538</v>
       </c>
       <c r="BA6">
-        <v>1.003939120446582</v>
+        <v>1.031978986798425</v>
       </c>
       <c r="BB6">
-        <v>0.9968950049428024</v>
+        <v>0.9093721033864621</v>
+      </c>
+      <c r="BC6">
+        <v>1.111281791561268</v>
       </c>
       <c r="BD6">
-        <v>1.09782962548305</v>
+        <v>0.9383683472286631</v>
       </c>
       <c r="BE6">
-        <v>0.9285939006212462</v>
+        <v>1.090625534487669</v>
       </c>
       <c r="BF6">
-        <v>1.077806072013568</v>
+        <v>0.9225322591113043</v>
       </c>
       <c r="BG6">
-        <v>1.107073162870977</v>
+        <v>0.9774996168231224</v>
+      </c>
+      <c r="BH6">
+        <v>1.035367230433548</v>
       </c>
       <c r="BI6">
-        <v>0.9299022537485746</v>
+        <v>1.026346699792551</v>
       </c>
       <c r="BJ6">
-        <v>0.980575892541301</v>
+        <v>1.214253709062748</v>
+      </c>
+      <c r="BK6">
+        <v>1.113244092557697</v>
       </c>
       <c r="BL6">
-        <v>0.9395790083034526</v>
+        <v>0.914700655919766</v>
+      </c>
+      <c r="BM6">
+        <v>1.204471116297998</v>
+      </c>
+      <c r="BN6">
+        <v>0.8307792494561549</v>
       </c>
       <c r="BO6">
-        <v>1.10546900535716</v>
+        <v>1.168083407546335</v>
+      </c>
+      <c r="BP6">
+        <v>1.192350466882134</v>
+      </c>
+      <c r="BQ6">
+        <v>1.297449883399124</v>
       </c>
       <c r="BR6">
-        <v>1.108519824241486</v>
+        <v>1.014799796904035</v>
       </c>
       <c r="BS6">
-        <v>1.337704927784354</v>
+        <v>1.241417822125611</v>
+      </c>
+      <c r="BT6">
+        <v>0.9437674541149814</v>
       </c>
       <c r="BU6">
-        <v>1.085480521883622</v>
+        <v>1.157551173456165</v>
       </c>
       <c r="BV6">
-        <v>1.249824283518266</v>
+        <v>1.025796278315552</v>
+      </c>
+      <c r="BW6">
+        <v>1.022740759196562</v>
       </c>
       <c r="BX6">
-        <v>1.117527942467765</v>
+        <v>1.088788637270797</v>
       </c>
       <c r="BY6">
-        <v>0.7781990952016733</v>
+        <v>1.029182806450722</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8278919710415281</v>
       </c>
       <c r="CA6">
-        <v>1.03851680107144</v>
+        <v>1.103801157719182</v>
+      </c>
+      <c r="CB6">
+        <v>1.14473455948909</v>
       </c>
       <c r="CC6">
-        <v>0.9976762666312299</v>
+        <v>1.432634322897454</v>
       </c>
       <c r="CD6">
-        <v>0.9860298112313168</v>
+        <v>0.9815900080583079</v>
       </c>
       <c r="CE6">
-        <v>1.006317980896745</v>
+        <v>1.154594904530444</v>
       </c>
       <c r="CF6">
-        <v>0.8684226649946972</v>
+        <v>1.058167713368771</v>
+      </c>
+      <c r="CG6">
+        <v>1.213090917560839</v>
       </c>
       <c r="CH6">
-        <v>0.9562975353011742</v>
+        <v>1.008301821976925</v>
       </c>
       <c r="CI6">
-        <v>1.139534813365773</v>
+        <v>1.261471915510248</v>
       </c>
       <c r="CJ6">
-        <v>0.8949979794239707</v>
+        <v>1.272305668815791</v>
       </c>
       <c r="CK6">
-        <v>1.198756578015902</v>
+        <v>0.9042114520379866</v>
       </c>
       <c r="CL6">
-        <v>1.312542011537343</v>
+        <v>0.8998706637041441</v>
       </c>
       <c r="CM6">
-        <v>0.9447413744794421</v>
+        <v>1.189905923562561</v>
       </c>
       <c r="CN6">
-        <v>1.007706208215553</v>
+        <v>1.295376325646542</v>
+      </c>
+      <c r="CO6">
+        <v>1.000984473970134</v>
       </c>
       <c r="CP6">
-        <v>1.120477590894147</v>
+        <v>1.065069552619747</v>
       </c>
       <c r="CQ6">
-        <v>1.034273984537413</v>
+        <v>0.8626718071364763</v>
+      </c>
+      <c r="CR6">
+        <v>1.054340939617638</v>
       </c>
       <c r="CS6">
-        <v>1.056564576608365</v>
+        <v>0.9367945149000383</v>
       </c>
       <c r="CT6">
-        <v>1.04115304057761</v>
+        <v>0.9803721572763255</v>
+      </c>
+      <c r="CU6">
+        <v>1.077074256999713</v>
+      </c>
+      <c r="CV6">
+        <v>1.062323519550894</v>
+      </c>
+      <c r="CW6">
+        <v>0.7970977301122713</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0.999402821938519</v>
+      </c>
+      <c r="D7">
+        <v>0.8251046031189961</v>
+      </c>
+      <c r="E7">
         <v>1.217177203467887</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>1.200990695170303</v>
+      </c>
+      <c r="H7">
+        <v>1.178770458384431</v>
+      </c>
+      <c r="J7">
         <v>1.105608047426982</v>
       </c>
-      <c r="D7">
-        <v>1.097642349190373</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.9735114319801067</v>
       </c>
-      <c r="G7">
-        <v>1.193725197044278</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1.032918852244065</v>
+      </c>
+      <c r="M7">
+        <v>0.8798643439640369</v>
+      </c>
+      <c r="N7">
         <v>1.027913981135747</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.9745946424637904</v>
       </c>
-      <c r="L7">
-        <v>1.1771015087935</v>
-      </c>
-      <c r="N7">
-        <v>1.33394937458429</v>
-      </c>
-      <c r="R7">
-        <v>0.9435859746562471</v>
+      <c r="P7">
+        <v>1.060374973996694</v>
+      </c>
+      <c r="Q7">
+        <v>1.336256066908967</v>
       </c>
       <c r="T7">
-        <v>1.0141875937825</v>
+        <v>0.9870081917151518</v>
+      </c>
+      <c r="U7">
+        <v>0.8947554273105927</v>
       </c>
       <c r="V7">
-        <v>0.8486221210194331</v>
-      </c>
-      <c r="X7">
-        <v>1.178770458384431</v>
+        <v>1.203763330884684</v>
+      </c>
+      <c r="W7">
+        <v>1.107578236119106</v>
       </c>
       <c r="Y7">
-        <v>0.9367756863559503</v>
+        <v>1.06563459560372</v>
       </c>
       <c r="Z7">
-        <v>1.906863203861687</v>
+        <v>0.9591977812122658</v>
       </c>
       <c r="AA7">
-        <v>1.295281551834252</v>
+        <v>1.344145171408668</v>
       </c>
       <c r="AC7">
-        <v>0.950730937408056</v>
-      </c>
-      <c r="AD7">
-        <v>1.318073182097107</v>
+        <v>1.51062846698652</v>
       </c>
       <c r="AE7">
-        <v>1.221949562633915</v>
+        <v>1.042596420019755</v>
+      </c>
+      <c r="AF7">
+        <v>1.079190044951697</v>
+      </c>
+      <c r="AG7">
+        <v>0.8986453577938838</v>
       </c>
       <c r="AH7">
-        <v>1.18720167610211</v>
+        <v>1.359352864746066</v>
       </c>
       <c r="AI7">
-        <v>1.093128698625095</v>
+        <v>1.098995104539747</v>
       </c>
       <c r="AJ7">
-        <v>0.9289565759390316</v>
+        <v>0.8032937897691003</v>
       </c>
       <c r="AK7">
-        <v>1.003894463536855</v>
+        <v>1.046996589818753</v>
       </c>
       <c r="AL7">
-        <v>1.09357209340451</v>
+        <v>1.191059057617901</v>
       </c>
       <c r="AM7">
-        <v>1.456791732014175</v>
+        <v>0.9221066077463369</v>
       </c>
       <c r="AO7">
-        <v>1.486472845824621</v>
+        <v>0.954520309056353</v>
       </c>
       <c r="AP7">
-        <v>1.364700092015552</v>
+        <v>1.253353871226968</v>
       </c>
       <c r="AQ7">
-        <v>1.129564691628759</v>
+        <v>1.011354192857979</v>
       </c>
       <c r="AR7">
-        <v>0.9510348396617205</v>
+        <v>0.8276319134965636</v>
+      </c>
+      <c r="AS7">
+        <v>1.474396559924904</v>
       </c>
       <c r="AT7">
-        <v>1.100367620451296</v>
+        <v>1.151011237128487</v>
+      </c>
+      <c r="AU7">
+        <v>1.186404185261018</v>
       </c>
       <c r="AV7">
-        <v>1.020639536802846</v>
+        <v>0.9593666009238452</v>
       </c>
       <c r="AW7">
-        <v>1.297938584026552</v>
+        <v>1.158697188547256</v>
       </c>
       <c r="AX7">
-        <v>1.740849472634652</v>
+        <v>1.032918394179732</v>
+      </c>
+      <c r="AY7">
+        <v>1.313824020130369</v>
       </c>
       <c r="AZ7">
-        <v>1.245041503830385</v>
+        <v>1.03499697760257</v>
       </c>
       <c r="BA7">
-        <v>1.199516045314913</v>
+        <v>1.076530823290125</v>
       </c>
       <c r="BB7">
-        <v>1.163848603681089</v>
+        <v>0.9901270414991324</v>
       </c>
       <c r="BC7">
-        <v>1.160221910720645</v>
+        <v>1.27488153663018</v>
+      </c>
+      <c r="BD7">
+        <v>1.062557111472404</v>
       </c>
       <c r="BE7">
-        <v>1.029549378524324</v>
+        <v>1.180588351192854</v>
       </c>
       <c r="BF7">
-        <v>1.136006262707099</v>
+        <v>1.067992380208662</v>
       </c>
       <c r="BG7">
-        <v>1.259309837026488</v>
+        <v>1.218412724854336</v>
+      </c>
+      <c r="BH7">
+        <v>1.135947589179171</v>
       </c>
       <c r="BI7">
-        <v>1.068676726026176</v>
+        <v>1.140944512998828</v>
       </c>
       <c r="BJ7">
-        <v>1.080604865160086</v>
+        <v>1.230874146488455</v>
+      </c>
+      <c r="BK7">
+        <v>1.175659047756451</v>
       </c>
       <c r="BL7">
-        <v>0.8277118399963507</v>
+        <v>1.10934258767094</v>
       </c>
       <c r="BM7">
-        <v>1.124604080612967</v>
+        <v>1.433912879987801</v>
+      </c>
+      <c r="BN7">
+        <v>0.8939256531068659</v>
+      </c>
+      <c r="BO7">
+        <v>1.034577973456984</v>
+      </c>
+      <c r="BP7">
+        <v>1.355966362639765</v>
+      </c>
+      <c r="BQ7">
+        <v>1.326097856786431</v>
       </c>
       <c r="BR7">
-        <v>1.00665133773832</v>
+        <v>1.043586789080152</v>
       </c>
       <c r="BS7">
-        <v>1.394969428228635</v>
+        <v>1.156100099148508</v>
       </c>
       <c r="BT7">
-        <v>1.076364684886307</v>
+        <v>0.7171455740198655</v>
       </c>
       <c r="BU7">
-        <v>1.146609650952255</v>
+        <v>1.164434967645023</v>
       </c>
       <c r="BV7">
-        <v>1.420623043056723</v>
+        <v>1.206199775114699</v>
       </c>
       <c r="BW7">
-        <v>1.052174179377213</v>
+        <v>1.2138128822811</v>
       </c>
       <c r="BX7">
-        <v>1.226954640118308</v>
-      </c>
-      <c r="CA7">
-        <v>1.078233647058164</v>
+        <v>1.048324027530315</v>
+      </c>
+      <c r="BY7">
+        <v>0.9862726432723261</v>
+      </c>
+      <c r="BZ7">
+        <v>1.100640413153087</v>
       </c>
       <c r="CB7">
-        <v>1.171434145894144</v>
+        <v>1.153234199680202</v>
       </c>
       <c r="CC7">
-        <v>0.9574803025934947</v>
+        <v>1.634885004188562</v>
       </c>
       <c r="CD7">
-        <v>1.152148910599246</v>
+        <v>1.157069826283808</v>
       </c>
       <c r="CE7">
-        <v>1.184709875830305</v>
+        <v>1.260675155605367</v>
       </c>
       <c r="CF7">
-        <v>0.9138175213478715</v>
+        <v>1.155077714670643</v>
       </c>
       <c r="CG7">
-        <v>1.168911624935053</v>
+        <v>1.24166737984402</v>
       </c>
       <c r="CH7">
-        <v>1.221642917335167</v>
-      </c>
-      <c r="CJ7">
-        <v>0.9586459902275664</v>
+        <v>1.085278263788146</v>
+      </c>
+      <c r="CI7">
+        <v>1.75057622307402</v>
       </c>
       <c r="CK7">
-        <v>1.283494098989472</v>
+        <v>0.9918386594580135</v>
+      </c>
+      <c r="CL7">
+        <v>1.051465206502815</v>
       </c>
       <c r="CM7">
-        <v>1.028133437538008</v>
+        <v>1.087015392169765</v>
       </c>
       <c r="CN7">
-        <v>1.063758649710424</v>
+        <v>1.422755892633543</v>
+      </c>
+      <c r="CO7">
+        <v>1.073398988341762</v>
       </c>
       <c r="CP7">
-        <v>1.005859912456737</v>
+        <v>1.070068849608645</v>
       </c>
       <c r="CQ7">
-        <v>1.143726876648018</v>
+        <v>0.9925039372911009</v>
+      </c>
+      <c r="CR7">
+        <v>1.113635342420806</v>
       </c>
       <c r="CS7">
-        <v>1.109628136298889</v>
+        <v>1.01106287697175</v>
+      </c>
+      <c r="CT7">
+        <v>1.025353788987069</v>
+      </c>
+      <c r="CU7">
+        <v>1.071602684777467</v>
+      </c>
+      <c r="CV7">
+        <v>1.112447760929848</v>
       </c>
       <c r="CW7">
-        <v>1.244516922297082</v>
+        <v>0.8676266773596705</v>
       </c>
     </row>
   </sheetData>
